--- a/Studio Major7th/KMG7 Advanced/xlsx/KMG7 Advanced.xlsx
+++ b/Studio Major7th/KMG7 Advanced/xlsx/KMG7 Advanced.xlsx
@@ -36,6 +36,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -58,6 +73,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,6 +116,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -108,6 +153,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,6 +196,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -152,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -728,13 +803,31 @@
   </si>
   <si>
     <t>String 7 (Locked)</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>KMG7 Main</t>
+  </si>
+  <si>
+    <t>KMG7 Picking</t>
+  </si>
+  <si>
+    <t>KMG7 Auto String Noise</t>
+  </si>
+  <si>
+    <t>KMG7 String</t>
+  </si>
+  <si>
+    <t>KMG7 String(Locked)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -779,8 +872,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +933,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -892,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +1058,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1042,13 +1154,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1347,7 +1459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1355,12 +1467,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1375,100 +1487,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1476,12 +1547,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1489,13 +1556,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1504,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -1516,13 +1583,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1531,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1543,13 +1610,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -1558,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -1570,13 +1637,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -1585,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -1597,13 +1664,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -1612,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -1624,13 +1691,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -1639,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -1651,13 +1718,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -1666,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -1678,13 +1745,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -1693,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -1704,26 +1771,54 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="12">
+        <v>120</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3211,26 +3306,55 @@
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
     </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3249,7 +3373,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3258,7 +3382,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3267,7 +3391,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3277,12 +3401,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3297,97 +3421,66 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -3396,13 +3489,27 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12">
+        <v>120</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -4994,26 +5101,55 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
     </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B129">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5031,7 +5167,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F127</xm:sqref>
+          <xm:sqref>F4:F129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5040,7 +5176,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E127</xm:sqref>
+          <xm:sqref>E4:E129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5049,7 +5185,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D127</xm:sqref>
+          <xm:sqref>D4:D129</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5059,12 +5195,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5079,97 +5215,66 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -5178,13 +5283,27 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12">
+        <v>120</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -6776,26 +6895,55 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
     </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B129">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K127">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -6813,7 +6961,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D127</xm:sqref>
+          <xm:sqref>D4:D129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6822,7 +6970,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E127</xm:sqref>
+          <xm:sqref>E4:E129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -6831,7 +6979,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F127</xm:sqref>
+          <xm:sqref>F4:F129</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6841,12 +6989,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -6861,100 +7009,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6962,12 +7069,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -6975,13 +7078,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -6990,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -7002,13 +7105,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -7017,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -7029,13 +7132,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -7044,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -7056,13 +7159,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -7071,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -7083,13 +7186,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -7098,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -7109,26 +7212,54 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -8668,26 +8799,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8705,7 +8865,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8714,7 +8874,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8723,7 +8883,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8733,12 +8893,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8755,114 +8915,65 @@
     <col min="1028" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="12">
-        <v>120</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -8870,18 +8981,10 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -8889,13 +8992,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -8904,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -8922,13 +9025,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -8937,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -8955,13 +9058,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -8970,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -8988,13 +9091,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -9003,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -9021,13 +9124,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -9036,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -9053,30 +9156,66 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="12">
+        <v>120</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="12">
+        <v>120</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -10852,26 +10991,59 @@
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
     </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="J2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="J4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129 I2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131 I4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="L2:L129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="L4:L131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="M2:M129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="M4:M131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -10889,7 +11061,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10898,7 +11070,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -10907,7 +11079,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129 H2:H129</xm:sqref>
+          <xm:sqref>F4:F131 H4:H131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
